--- a/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
+++ b/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\lms-with-moodle\src\Presentation\Virgol.School\ClientApp\public\samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700E76E-2963-4763-BE41-3361E3CE9117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SchoolStudent_817_93736" sheetId="1" r:id="rId4"/>
+    <sheet name="SchoolStudent_817_93736" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,36 +58,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -92,6 +110,7 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -106,6 +125,7 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -120,6 +140,7 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -134,6 +155,7 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -148,6 +170,7 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -162,27 +185,34 @@
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <right/>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -192,65 +222,69 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -404,7 +438,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -413,13 +447,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -429,7 +463,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -438,7 +472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -447,7 +481,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -457,12 +491,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -493,7 +527,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -512,7 +546,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -563,29 +597,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="8.43"/>
-    <col customWidth="1" min="4" max="4" width="9.71"/>
-    <col customWidth="1" min="5" max="5" width="7.86"/>
-    <col customWidth="1" min="6" max="6" width="5.43"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
-    <col customWidth="1" min="8" max="8" width="3.29"/>
-    <col customWidth="1" min="9" max="9" width="5.0"/>
-    <col customWidth="1" min="10" max="10" width="15.71"/>
-    <col customWidth="1" min="11" max="11" width="8.0"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -629,7 +661,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -643,19 +675,19 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -730,9 +762,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
+++ b/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\lms-with-moodle\src\Presentation\Virgol.School\ClientApp\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700E76E-2963-4763-BE41-3361E3CE9117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BF1DD-FF3F-4AB7-9A11-34B4E4088617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>کد ملی/اتباع</t>
   </si>
@@ -37,22 +34,13 @@
     <t>نام پدر</t>
   </si>
   <si>
-    <t>جنسیت</t>
-  </si>
-  <si>
-    <t>تاریخ تولد</t>
-  </si>
-  <si>
-    <t>پایه</t>
-  </si>
-  <si>
-    <t>کلاس</t>
-  </si>
-  <si>
-    <t>زمان ثبت نام</t>
-  </si>
-  <si>
-    <t>تعداد کل : 15</t>
+    <t>نام مادر</t>
+  </si>
+  <si>
+    <t>شماره تماس</t>
+  </si>
+  <si>
+    <t>جنسیت(دختر/پسر)</t>
   </si>
 </sst>
 </file>
@@ -66,12 +54,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -79,6 +61,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -97,168 +86,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,80 +444,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1"/>
@@ -759,10 +587,7 @@
     <row r="85" ht="14.25" customHeight="1"/>
     <row r="86" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:J3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
+++ b/src/Presentation/Virgol.School/ClientApp/public/samples/StudentTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\lms-with-moodle\src\Presentation\Virgol.School\ClientApp\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BF1DD-FF3F-4AB7-9A11-34B4E4088617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA37548-2D11-4D21-8D21-1EC18A837AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>کد ملی/اتباع</t>
   </si>
@@ -41,6 +41,33 @@
   </si>
   <si>
     <t>جنسیت(دختر/پسر)</t>
+  </si>
+  <si>
+    <t>تست پدر</t>
+  </si>
+  <si>
+    <t>تست مادر</t>
+  </si>
+  <si>
+    <t>پسر</t>
+  </si>
+  <si>
+    <t>رمز عبور</t>
+  </si>
+  <si>
+    <t>تكميل خودكار</t>
+  </si>
+  <si>
+    <t>تكميلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>خودكار بدون پسورد</t>
+  </si>
+  <si>
+    <t>تکمیلی 2</t>
   </si>
 </sst>
 </file>
@@ -442,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
@@ -482,110 +509,70 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7984597854</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9153883789</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>123456789</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4658941</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9153883790</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
